--- a/output/2025-06-02/2009_Twilight_2025_06_02.xlsx
+++ b/output/2025-06-02/2009_Twilight_2025_06_02.xlsx
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>87726</v>
+        <v>87730</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4134</v>
+        <v>4136</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>87726</v>
+        <v>87730</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
